--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:35:52+00:00</t>
+    <t>2025-12-26T00:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:40:38+00:00</t>
+    <t>2025-12-26T00:44:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T00:44:33+00:00</t>
+    <t>2025-12-26T01:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:02:00+00:00</t>
+    <t>2025-12-26T01:05:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:05:32+00:00</t>
+    <t>2025-12-26T01:36:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:36:34+00:00</t>
+    <t>2025-12-26T01:59:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T01:59:09+00:00</t>
+    <t>2025-12-26T02:26:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T02:26:51+00:00</t>
+    <t>2025-12-26T10:04:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:04:19+00:00</t>
+    <t>2025-12-26T10:13:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:13:27+00:00</t>
+    <t>2025-12-26T10:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:16:19+00:00</t>
+    <t>2025-12-26T10:24:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:24:22+00:00</t>
+    <t>2025-12-26T10:42:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:42:17+00:00</t>
+    <t>2025-12-26T10:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T10:50:19+00:00</t>
+    <t>2025-12-26T11:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:20:10+00:00</t>
+    <t>2025-12-26T11:23:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:23:52+00:00</t>
+    <t>2025-12-26T11:26:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:26:31+00:00</t>
+    <t>2025-12-26T11:27:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:27:38+00:00</t>
+    <t>2025-12-26T11:28:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:28:30+00:00</t>
+    <t>2025-12-26T11:29:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:29:16+00:00</t>
+    <t>2025-12-26T11:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:30:01+00:00</t>
+    <t>2025-12-26T11:30:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:30:54+00:00</t>
+    <t>2025-12-26T11:31:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:31:25+00:00</t>
+    <t>2025-12-26T11:32:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:32:15+00:00</t>
+    <t>2025-12-26T11:32:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:32:54+00:00</t>
+    <t>2025-12-26T11:33:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:01+00:00</t>
+    <t>2025-12-26T11:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:23+00:00</t>
+    <t>2025-12-26T11:33:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:33:47+00:00</t>
+    <t>2025-12-26T11:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:36:15+00:00</t>
+    <t>2025-12-26T11:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T11:47:29+00:00</t>
+    <t>2025-12-26T12:00:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:00:12+00:00</t>
+    <t>2025-12-26T12:02:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:02:28+00:00</t>
+    <t>2025-12-26T12:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:06:48+00:00</t>
+    <t>2025-12-26T12:07:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:07:46+00:00</t>
+    <t>2025-12-26T12:14:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:14:29+00:00</t>
+    <t>2025-12-26T12:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T12:21:51+00:00</t>
+    <t>2025-12-26T14:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -644,7 +644,7 @@
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="nursing"/&gt;
+    &lt;code value="survey"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -670,9 +670,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="870431003"/&gt;
-    &lt;display value="Malnutrition Universal Screening Tool score"/&gt;
+    &lt;system value="https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes"/&gt;
+    &lt;code value="must-score"/&gt;
+    &lt;display value="MUST Score"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1614,9 +1614,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="846931000000101"/&gt;
-    &lt;display value="Malnutrition Universal Screening Tool BMI score"/&gt;
+    &lt;system value="https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes"/&gt;
+    &lt;code value="must-bmi-score"/&gt;
+    &lt;display value="MUST BMI Score"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1699,9 +1699,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="846941000000105"/&gt;
-    &lt;display value="Malnutrition Universal Screening Tool weight loss score"/&gt;
+    &lt;system value="https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes"/&gt;
+    &lt;code value="must-weight-loss-score"/&gt;
+    &lt;display value="MUST Weight Loss Score"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1759,9 +1759,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="846951000000107"/&gt;
-    &lt;display value="Malnutrition Universal Screening Tool acute disease effect score"/&gt;
+    &lt;system value="https://clinyqai.github.io/open-nursing-core-ig/CodeSystem/onc-observation-codes"/&gt;
+    &lt;code value="must-acute-disease-score"/&gt;
+    &lt;display value="MUST Acute Disease Score"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:28:37+00:00</t>
+    <t>2025-12-26T14:29:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:29:21+00:00</t>
+    <t>2025-12-26T14:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:36:57+00:00</t>
+    <t>2025-12-26T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:39:04+00:00</t>
+    <t>2025-12-26T14:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T14:39:51+00:00</t>
+    <t>2025-12-26T15:08:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-26T15:08:13+00:00</t>
+    <t>2026-01-01T16:16:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-01T16:16:25+00:00</t>
+    <t>2026-01-02T16:06:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-must-score</t>
+    <t>https://opennursingcoreig.com/StructureDefinition/onc-must-score</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T16:06:53+00:00</t>
+    <t>2026-01-02T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/StructureDefinition/onc-nursing-assessment</t>
+    <t>https://opennursingcoreig.com/StructureDefinition/onc-nursing-assessment</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:43:46+00:00</t>
+    <t>2026-01-02T23:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T23:54:54+00:00</t>
+    <t>2026-01-03T00:14:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:14:22+00:00</t>
+    <t>2026-01-03T00:34:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T00:34:03+00:00</t>
+    <t>2026-01-03T01:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onc-must-score.xlsx
+++ b/StructureDefinition-onc-must-score.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-03T01:26:42+00:00</t>
+    <t>2026-01-03T01:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
